--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Btc-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Btc-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +543,10 @@
         <v>0.410797</v>
       </c>
       <c r="I2">
-        <v>0.1841212627547934</v>
+        <v>0.08243498013860336</v>
       </c>
       <c r="J2">
-        <v>0.1841212627547933</v>
+        <v>0.08243498013860337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.155977333333334</v>
+        <v>2.885873333333334</v>
       </c>
       <c r="N2">
-        <v>9.467932000000001</v>
+        <v>8.657620000000001</v>
       </c>
       <c r="O2">
-        <v>0.3579027849973545</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="P2">
-        <v>0.3579027849973545</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="Q2">
-        <v>0.4321553402004445</v>
+        <v>0.3951693692377779</v>
       </c>
       <c r="R2">
-        <v>3.889398061804</v>
+        <v>3.556524323140001</v>
       </c>
       <c r="S2">
-        <v>0.06589751271717023</v>
+        <v>0.0253109653209587</v>
       </c>
       <c r="T2">
-        <v>0.06589751271717022</v>
+        <v>0.02531096532095871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +605,10 @@
         <v>0.410797</v>
       </c>
       <c r="I3">
-        <v>0.1841212627547934</v>
+        <v>0.08243498013860336</v>
       </c>
       <c r="J3">
-        <v>0.1841212627547933</v>
+        <v>0.08243498013860337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +623,10 @@
         <v>9.497861</v>
       </c>
       <c r="O3">
-        <v>0.3590341484727349</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="P3">
-        <v>0.3590341484727349</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="Q3">
         <v>0.4335214228018889</v>
@@ -632,10 +635,10 @@
         <v>3.901692805217</v>
       </c>
       <c r="S3">
-        <v>0.06610582078889192</v>
+        <v>0.02776744999137016</v>
       </c>
       <c r="T3">
-        <v>0.06610582078889191</v>
+        <v>0.02776744999137016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +667,10 @@
         <v>0.410797</v>
       </c>
       <c r="I4">
-        <v>0.1841212627547934</v>
+        <v>0.08243498013860336</v>
       </c>
       <c r="J4">
-        <v>0.1841212627547933</v>
+        <v>0.08243498013860337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.496042666666666</v>
+        <v>3.327024333333334</v>
       </c>
       <c r="N4">
-        <v>7.488128</v>
+        <v>9.981073</v>
       </c>
       <c r="O4">
-        <v>0.2830630665299106</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="P4">
-        <v>0.2830630665299106</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="Q4">
-        <v>0.3417889464462222</v>
+        <v>0.4555772050201112</v>
       </c>
       <c r="R4">
-        <v>3.076100518016</v>
+        <v>4.100194845181</v>
       </c>
       <c r="S4">
-        <v>0.05211792924873122</v>
+        <v>0.02918014333834902</v>
       </c>
       <c r="T4">
-        <v>0.05211792924873122</v>
+        <v>0.02918014333834902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,55 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.606775</v>
+        <v>0.1369323333333334</v>
       </c>
       <c r="H5">
-        <v>1.820325</v>
+        <v>0.410797</v>
       </c>
       <c r="I5">
-        <v>0.8158787372452067</v>
+        <v>0.08243498013860336</v>
       </c>
       <c r="J5">
-        <v>0.8158787372452067</v>
+        <v>0.08243498013860337</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.155977333333334</v>
+        <v>0.020115</v>
       </c>
       <c r="N5">
-        <v>9.467932000000001</v>
+        <v>0.060345</v>
       </c>
       <c r="O5">
-        <v>0.3579027849973545</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="P5">
-        <v>0.3579027849973545</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="Q5">
-        <v>1.914968146433333</v>
+        <v>0.002754393885</v>
       </c>
       <c r="R5">
-        <v>17.2347133179</v>
+        <v>0.024789544965</v>
       </c>
       <c r="S5">
-        <v>0.2920052722801843</v>
+        <v>0.0001764214879254637</v>
       </c>
       <c r="T5">
-        <v>0.2920052722801843</v>
+        <v>0.0001764214879254637</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.606775</v>
+        <v>1.524162666666667</v>
       </c>
       <c r="H6">
-        <v>1.820325</v>
+        <v>4.572488</v>
       </c>
       <c r="I6">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613966</v>
       </c>
       <c r="J6">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613967</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.165953666666667</v>
+        <v>2.885873333333334</v>
       </c>
       <c r="N6">
-        <v>9.497861</v>
+        <v>8.657620000000001</v>
       </c>
       <c r="O6">
-        <v>0.3590341484727349</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="P6">
-        <v>0.3590341484727349</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="Q6">
-        <v>1.921021536091666</v>
+        <v>4.398540395395556</v>
       </c>
       <c r="R6">
-        <v>17.289193824825</v>
+        <v>39.58686355856</v>
       </c>
       <c r="S6">
-        <v>0.292928327683843</v>
+        <v>0.2817305997816435</v>
       </c>
       <c r="T6">
-        <v>0.292928327683843</v>
+        <v>0.2817305997816436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.606775</v>
+        <v>1.524162666666667</v>
       </c>
       <c r="H7">
-        <v>1.820325</v>
+        <v>4.572488</v>
       </c>
       <c r="I7">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613966</v>
       </c>
       <c r="J7">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613967</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.496042666666666</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N7">
-        <v>7.488128</v>
+        <v>9.497861</v>
       </c>
       <c r="O7">
-        <v>0.2830630665299106</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="P7">
-        <v>0.2830630665299106</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="Q7">
-        <v>1.514536289066666</v>
+        <v>4.825428383129777</v>
       </c>
       <c r="R7">
-        <v>13.6308266016</v>
+        <v>43.428855448168</v>
       </c>
       <c r="S7">
-        <v>0.2309451372811794</v>
+        <v>0.3090731720926398</v>
       </c>
       <c r="T7">
-        <v>0.2309451372811794</v>
+        <v>0.3090731720926398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.524162666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.572488</v>
+      </c>
+      <c r="I8">
+        <v>0.9175650198613966</v>
+      </c>
+      <c r="J8">
+        <v>0.9175650198613967</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.327024333333334</v>
+      </c>
+      <c r="N8">
+        <v>9.981073</v>
+      </c>
+      <c r="O8">
+        <v>0.3539776838580724</v>
+      </c>
+      <c r="P8">
+        <v>0.3539776838580724</v>
+      </c>
+      <c r="Q8">
+        <v>5.070926279958222</v>
+      </c>
+      <c r="R8">
+        <v>45.638336519624</v>
+      </c>
+      <c r="S8">
+        <v>0.3247975405197234</v>
+      </c>
+      <c r="T8">
+        <v>0.3247975405197234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.524162666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.572488</v>
+      </c>
+      <c r="I9">
+        <v>0.9175650198613966</v>
+      </c>
+      <c r="J9">
+        <v>0.9175650198613967</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.020115</v>
+      </c>
+      <c r="N9">
+        <v>0.060345</v>
+      </c>
+      <c r="O9">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="P9">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="Q9">
+        <v>0.03065853204</v>
+      </c>
+      <c r="R9">
+        <v>0.27592678836</v>
+      </c>
+      <c r="S9">
+        <v>0.001963707467389799</v>
+      </c>
+      <c r="T9">
+        <v>0.0019637074673898</v>
       </c>
     </row>
   </sheetData>
